--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/C3-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/C3-Lrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.942832</v>
+        <v>0.555934</v>
       </c>
       <c r="H2">
-        <v>122.828496</v>
+        <v>1.667802</v>
       </c>
       <c r="I2">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589096</v>
       </c>
       <c r="J2">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589094</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N2">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q2">
-        <v>967.7164930523252</v>
+        <v>1.066785273515333</v>
       </c>
       <c r="R2">
-        <v>8709.448437470926</v>
+        <v>9.601067461637999</v>
       </c>
       <c r="S2">
-        <v>0.01763632260932571</v>
+        <v>3.748213922749634E-05</v>
       </c>
       <c r="T2">
-        <v>0.01763632260932571</v>
+        <v>3.748213922749633E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.942832</v>
+        <v>0.555934</v>
       </c>
       <c r="H3">
-        <v>122.828496</v>
+        <v>1.667802</v>
       </c>
       <c r="I3">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589096</v>
       </c>
       <c r="J3">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589094</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P3">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q3">
-        <v>7422.460149910922</v>
+        <v>100.7843805475054</v>
       </c>
       <c r="R3">
-        <v>66802.1413491983</v>
+        <v>907.0594249275481</v>
       </c>
       <c r="S3">
-        <v>0.135271954853016</v>
+        <v>0.003541119546195416</v>
       </c>
       <c r="T3">
-        <v>0.135271954853016</v>
+        <v>0.003541119546195415</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.942832</v>
+        <v>0.555934</v>
       </c>
       <c r="H4">
-        <v>122.828496</v>
+        <v>1.667802</v>
       </c>
       <c r="I4">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589096</v>
       </c>
       <c r="J4">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589094</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N4">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q4">
-        <v>1234.141395394058</v>
+        <v>16.14858867095933</v>
       </c>
       <c r="R4">
-        <v>11107.27255854653</v>
+        <v>145.337298038634</v>
       </c>
       <c r="S4">
-        <v>0.02249183097628173</v>
+        <v>0.0005673903304813177</v>
       </c>
       <c r="T4">
-        <v>0.02249183097628173</v>
+        <v>0.0005673903304813176</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.942832</v>
+        <v>0.555934</v>
       </c>
       <c r="H5">
-        <v>122.828496</v>
+        <v>1.667802</v>
       </c>
       <c r="I5">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589096</v>
       </c>
       <c r="J5">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589094</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N5">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q5">
-        <v>4548.771003633882</v>
+        <v>45.51682124798133</v>
       </c>
       <c r="R5">
-        <v>40938.93903270493</v>
+        <v>409.651391231832</v>
       </c>
       <c r="S5">
-        <v>0.08289989213989317</v>
+        <v>0.001599260763684866</v>
       </c>
       <c r="T5">
-        <v>0.08289989213989317</v>
+        <v>0.001599260763684865</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>239.063137</v>
       </c>
       <c r="I6">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="J6">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N6">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q6">
-        <v>1883.482645230205</v>
+        <v>152.9132558852781</v>
       </c>
       <c r="R6">
-        <v>16951.34380707184</v>
+        <v>1376.219302967503</v>
       </c>
       <c r="S6">
-        <v>0.03432586692366102</v>
+        <v>0.005372698788702755</v>
       </c>
       <c r="T6">
-        <v>0.03432586692366102</v>
+        <v>0.005372698788702755</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>239.063137</v>
       </c>
       <c r="I7">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="J7">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>543.865174</v>
       </c>
       <c r="O7">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P7">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q7">
         <v>14446.45717794343</v>
@@ -883,10 +883,10 @@
         <v>130018.1146014908</v>
       </c>
       <c r="S7">
-        <v>0.2632820471503973</v>
+        <v>0.5075849214747868</v>
       </c>
       <c r="T7">
-        <v>0.2632820471503972</v>
+        <v>0.5075849214747868</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>239.063137</v>
       </c>
       <c r="I8">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="J8">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N8">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q8">
-        <v>2402.029847247019</v>
+        <v>2314.742556851592</v>
       </c>
       <c r="R8">
-        <v>21618.26862522317</v>
+        <v>20832.68301166433</v>
       </c>
       <c r="S8">
-        <v>0.04377622331273749</v>
+        <v>0.08132986548063291</v>
       </c>
       <c r="T8">
-        <v>0.04377622331273749</v>
+        <v>0.08132986548063292</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>239.063137</v>
       </c>
       <c r="I9">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="J9">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N9">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q9">
-        <v>8853.348376286838</v>
+        <v>6524.392028436632</v>
       </c>
       <c r="R9">
-        <v>79680.13538658153</v>
+        <v>58719.52825592969</v>
       </c>
       <c r="S9">
-        <v>0.1613494337008287</v>
+        <v>0.2292384198169325</v>
       </c>
       <c r="T9">
-        <v>0.1613494337008287</v>
+        <v>0.2292384198169325</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3464216666666666</v>
+        <v>0.3446996666666666</v>
       </c>
       <c r="H10">
-        <v>1.039265</v>
+        <v>1.034099</v>
       </c>
       <c r="I10">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="J10">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N10">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O10">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P10">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q10">
-        <v>8.187952420682777</v>
+        <v>0.6614463734645554</v>
       </c>
       <c r="R10">
-        <v>73.69157178614499</v>
+        <v>5.953017361180999</v>
       </c>
       <c r="S10">
-        <v>0.000149222805891728</v>
+        <v>2.324031431369835E-05</v>
       </c>
       <c r="T10">
-        <v>0.000149222805891728</v>
+        <v>2.324031431369835E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3464216666666666</v>
+        <v>0.3446996666666666</v>
       </c>
       <c r="H11">
-        <v>1.039265</v>
+        <v>1.034099</v>
       </c>
       <c r="I11">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="J11">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>543.865174</v>
       </c>
       <c r="O11">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P11">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q11">
-        <v>62.80222667301222</v>
+        <v>62.49004806313622</v>
       </c>
       <c r="R11">
-        <v>565.2200400571099</v>
+        <v>562.4104325682259</v>
       </c>
       <c r="S11">
-        <v>0.001144550432013103</v>
+        <v>0.002195625249041033</v>
       </c>
       <c r="T11">
-        <v>0.001144550432013103</v>
+        <v>0.002195625249041033</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3464216666666666</v>
+        <v>0.3446996666666666</v>
       </c>
       <c r="H12">
-        <v>1.039265</v>
+        <v>1.034099</v>
       </c>
       <c r="I12">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="J12">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N12">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O12">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P12">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q12">
-        <v>10.44220192425222</v>
+        <v>10.01272297074255</v>
       </c>
       <c r="R12">
-        <v>93.97981731826998</v>
+        <v>90.11450673668298</v>
       </c>
       <c r="S12">
-        <v>0.0001903057798539309</v>
+        <v>0.0003518030158018758</v>
       </c>
       <c r="T12">
-        <v>0.0001903057798539309</v>
+        <v>0.0003518030158018758</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3464216666666666</v>
+        <v>0.3446996666666666</v>
       </c>
       <c r="H13">
-        <v>1.039265</v>
+        <v>1.034099</v>
       </c>
       <c r="I13">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="J13">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N13">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O13">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P13">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q13">
-        <v>38.48763642837055</v>
+        <v>28.22211469689822</v>
       </c>
       <c r="R13">
-        <v>346.3887278553349</v>
+        <v>253.999032272084</v>
       </c>
       <c r="S13">
-        <v>0.0007014248257567696</v>
+        <v>0.0009916008953495413</v>
       </c>
       <c r="T13">
-        <v>0.0007014248257567696</v>
+        <v>0.0009916008953495411</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>37.53186833333334</v>
+        <v>16.17571666666667</v>
       </c>
       <c r="H14">
-        <v>112.595605</v>
+        <v>48.52715</v>
       </c>
       <c r="I14">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="J14">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N14">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O14">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P14">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q14">
-        <v>887.0956459786405</v>
+        <v>31.03968515787222</v>
       </c>
       <c r="R14">
-        <v>7983.860813807765</v>
+        <v>279.35716642085</v>
       </c>
       <c r="S14">
-        <v>0.01616703353733329</v>
+        <v>0.001090597920264875</v>
       </c>
       <c r="T14">
-        <v>0.01616703353733328</v>
+        <v>0.001090597920264875</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>37.53186833333334</v>
+        <v>16.17571666666667</v>
       </c>
       <c r="H15">
-        <v>112.595605</v>
+        <v>48.52715</v>
       </c>
       <c r="I15">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="J15">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>543.865174</v>
       </c>
       <c r="O15">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P15">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q15">
-        <v>6804.092033884475</v>
+        <v>2932.469653163789</v>
       </c>
       <c r="R15">
-        <v>61236.82830496028</v>
+        <v>26392.2268784741</v>
       </c>
       <c r="S15">
-        <v>0.1240023943320777</v>
+        <v>0.1030340768185653</v>
       </c>
       <c r="T15">
-        <v>0.1240023943320776</v>
+        <v>0.1030340768185653</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>37.53186833333334</v>
+        <v>16.17571666666667</v>
       </c>
       <c r="H16">
-        <v>112.595605</v>
+        <v>48.52715</v>
       </c>
       <c r="I16">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="J16">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N16">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O16">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P16">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q16">
-        <v>1131.324583425155</v>
+        <v>469.8669174901722</v>
       </c>
       <c r="R16">
-        <v>10181.92125082639</v>
+        <v>4228.80225741155</v>
       </c>
       <c r="S16">
-        <v>0.02061802756529871</v>
+        <v>0.01650905543692625</v>
       </c>
       <c r="T16">
-        <v>0.02061802756529871</v>
+        <v>0.01650905543692625</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>37.53186833333334</v>
+        <v>16.17571666666667</v>
       </c>
       <c r="H17">
-        <v>112.595605</v>
+        <v>48.52715</v>
       </c>
       <c r="I17">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="J17">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N17">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O17">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P17">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q17">
-        <v>4169.811076744066</v>
+        <v>1324.378800495489</v>
       </c>
       <c r="R17">
-        <v>37528.29969069659</v>
+        <v>11919.4092044594</v>
       </c>
       <c r="S17">
-        <v>0.07599346905563362</v>
+        <v>0.04653284200909342</v>
       </c>
       <c r="T17">
-        <v>0.0759934690556336</v>
+        <v>0.04653284200909341</v>
       </c>
     </row>
   </sheetData>
